--- a/Karnataka.xlsx
+++ b/Karnataka.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="1" r:id="rId1"/>
     <sheet name="2009" sheetId="2" r:id="rId2"/>
     <sheet name="2004" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3780,7 +3780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="D376" sqref="D376"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
